--- a/Exam handin/contribution_statement.xlsx
+++ b/Exam handin/contribution_statement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edibegovic/Dropbox/ITU/ReflectionsDS/Exam handin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hogni/Documents/GitHub/ReflectionsDS/Exam handin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A11113-3C64-1743-AC0A-6372B11E3074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A591C05C-D02A-544B-89CF-8419A0A14EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="11840" windowWidth="25600" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6800" yWindow="6900" windowWidth="25600" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,6 +231,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -242,9 +245,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,7 +467,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -477,28 +477,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -515,42 +515,42 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="11">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="11">
+        <v>30</v>
       </c>
       <c r="D5" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="11">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="11">
+        <v>30</v>
       </c>
       <c r="D6" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11">
-        <v>25</v>
-      </c>
-      <c r="C7" s="6">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="11">
+        <v>20</v>
       </c>
       <c r="D7" s="6">
         <v>25</v>
@@ -558,14 +558,14 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="11">
-        <v>25</v>
-      </c>
-      <c r="C8" s="6">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="11">
+        <v>20</v>
       </c>
       <c r="D8" s="6">
         <v>25</v>
